--- a/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE ORGANISMOS.xlsx
+++ b/PDRMYE/ENTREGABLES/Matriz de Puebas/Matiz de Pruebas PDRMYE ORGANISMOS.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -688,6 +688,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -739,24 +757,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" pivotButton="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Énfasis6" xfId="1" builtinId="49"/>
@@ -877,7 +877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1656,7 +1655,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1788,7 +1786,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2089,7 +2086,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4898,16 +4894,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>12</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>1761565</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>412376</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>914400</xdr:colOff>
+          <xdr:colOff>772085</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>228600</xdr:rowOff>
+          <xdr:rowOff>188259</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9577,128 +9573,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="6" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -9881,8 +9756,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -9936,6 +9811,127 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de N° Caso" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
           </reference>
         </references>
       </pivotArea>
@@ -10224,9 +10220,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N280"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10248,94 +10244,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="23" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -10416,9 +10412,9 @@
         <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N7" s="1">
@@ -10453,7 +10449,7 @@
       <c r="I8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="28"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="1">
         <v>45050</v>
       </c>
@@ -10486,7 +10482,7 @@
       <c r="I9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N9" s="1">
@@ -10521,7 +10517,7 @@
       <c r="I10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="28" t="s">
+      <c r="M10" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N10" s="1">
@@ -10556,7 +10552,7 @@
       <c r="I11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N11" s="1">
@@ -10591,7 +10587,7 @@
       <c r="I12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="28" t="s">
+      <c r="M12" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N12" s="1">
@@ -10626,7 +10622,7 @@
       <c r="I13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N13" s="1">
@@ -10661,7 +10657,7 @@
       <c r="I14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="M14" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N14" s="1">
@@ -10696,7 +10692,7 @@
       <c r="I15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N15" s="1">
@@ -10731,7 +10727,7 @@
       <c r="I16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M16" s="28" t="s">
+      <c r="M16" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N16" s="1">
@@ -10766,7 +10762,7 @@
       <c r="I17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N17" s="1">
@@ -10798,7 +10794,7 @@
       <c r="I18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N18" s="1"/>
@@ -10828,7 +10824,7 @@
       <c r="I19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N19" s="1"/>
@@ -10858,7 +10854,7 @@
       <c r="I20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="28" t="s">
+      <c r="M20" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N20" s="1"/>
@@ -10888,7 +10884,7 @@
       <c r="I21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N21" s="1"/>
@@ -10918,7 +10914,7 @@
       <c r="I22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N22" s="1"/>
@@ -10948,7 +10944,7 @@
       <c r="I23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N23" s="1"/>
@@ -10978,7 +10974,7 @@
       <c r="I24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="11" t="s">
         <v>83</v>
       </c>
       <c r="N24" s="1"/>
@@ -11807,16 +11803,16 @@
           <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>1762125</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>409575</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>228600</xdr:rowOff>
+                <xdr:rowOff>190500</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -11880,66 +11876,66 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="17">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="19">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="19">
         <v>1</v>
       </c>
     </row>
@@ -11966,10 +11962,10 @@
       <c r="A49" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="20">
         <v>1</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="20">
         <v>1</v>
       </c>
     </row>
@@ -11977,10 +11973,10 @@
       <c r="A50" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="20">
         <v>1</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="20">
         <v>1</v>
       </c>
     </row>
